--- a/5/2/2/Moneda extranjera 1990 a 2021 - Mensual.xlsx
+++ b/5/2/2/Moneda extranjera 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="383" uniqueCount="383">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
   <si>
     <t>Serie</t>
   </si>
@@ -1163,6 +1163,9 @@
   </si>
   <si>
     <t>01-05-2021</t>
+  </si>
+  <si>
+    <t>01-06-2021</t>
   </si>
 </sst>
 </file>
@@ -1520,7 +1523,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F378"/>
+  <dimension ref="A1:F379"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9086,6 +9089,26 @@
         <v>6017</v>
       </c>
     </row>
+    <row r="379" spans="1:6">
+      <c r="A379" t="s">
+        <v>383</v>
+      </c>
+      <c r="B379">
+        <v>29029</v>
+      </c>
+      <c r="C379">
+        <v>22912</v>
+      </c>
+      <c r="D379">
+        <v>9272</v>
+      </c>
+      <c r="E379">
+        <v>13640</v>
+      </c>
+      <c r="F379">
+        <v>6117</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/2/Moneda extranjera 1990 a 2021 - Mensual.xlsx
+++ b/5/2/2/Moneda extranjera 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="384" uniqueCount="384">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
   <si>
     <t>Serie</t>
   </si>
@@ -1166,6 +1166,9 @@
   </si>
   <si>
     <t>01-06-2021</t>
+  </si>
+  <si>
+    <t>01-07-2021</t>
   </si>
 </sst>
 </file>
@@ -1523,7 +1526,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F379"/>
+  <dimension ref="A1:F380"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9109,6 +9112,26 @@
         <v>6117</v>
       </c>
     </row>
+    <row r="380" spans="1:6">
+      <c r="A380" t="s">
+        <v>384</v>
+      </c>
+      <c r="B380">
+        <v>29977</v>
+      </c>
+      <c r="C380">
+        <v>23290</v>
+      </c>
+      <c r="D380">
+        <v>9617</v>
+      </c>
+      <c r="E380">
+        <v>13672</v>
+      </c>
+      <c r="F380">
+        <v>6688</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/5/2/2/Moneda extranjera 1990 a 2021 - Mensual.xlsx
+++ b/5/2/2/Moneda extranjera 1990 a 2021 - Mensual.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="385" uniqueCount="385">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="386" uniqueCount="386">
   <si>
     <t>Serie</t>
   </si>
@@ -1169,6 +1169,9 @@
   </si>
   <si>
     <t>01-07-2021</t>
+  </si>
+  <si>
+    <t>01-08-2021</t>
   </si>
 </sst>
 </file>
@@ -1526,7 +1529,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:F380"/>
+  <dimension ref="A1:F381"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -9123,13 +9126,33 @@
         <v>23290</v>
       </c>
       <c r="D380">
-        <v>9617</v>
+        <v>9618</v>
       </c>
       <c r="E380">
         <v>13672</v>
       </c>
       <c r="F380">
         <v>6688</v>
+      </c>
+    </row>
+    <row r="381" spans="1:6">
+      <c r="A381" t="s">
+        <v>385</v>
+      </c>
+      <c r="B381">
+        <v>29632</v>
+      </c>
+      <c r="C381">
+        <v>22820</v>
+      </c>
+      <c r="D381">
+        <v>9332</v>
+      </c>
+      <c r="E381">
+        <v>13488</v>
+      </c>
+      <c r="F381">
+        <v>6812</v>
       </c>
     </row>
   </sheetData>
